--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/5.DoiBH/DM230411_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/5.DoiBH/DM230411_AnhTuanNB.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -156,15 +156,6 @@
   </si>
   <si>
     <t>Dây lỗi đầu cos</t>
-  </si>
-  <si>
-    <t>Dây nguồn VNSH01</t>
-  </si>
-  <si>
-    <t>SL : 01</t>
-  </si>
-  <si>
-    <t>Dây không nhận CB</t>
   </si>
   <si>
     <t>Mắt camera minidome</t>
@@ -542,7 +533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -635,12 +626,132 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -649,138 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1159,104 +1138,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="39" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="42" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="42" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1266,13 +1245,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1282,15 +1261,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -1325,19 +1304,19 @@
       <c r="A12" s="30">
         <v>1</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="65">
+      <c r="B12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="36">
         <v>5018102</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="76" t="s">
-        <v>48</v>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>29</v>
@@ -1350,19 +1329,19 @@
       <c r="A13" s="30">
         <v>2</v>
       </c>
-      <c r="B13" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="65">
+      <c r="B13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="36">
         <v>5018085</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="76" t="s">
-        <v>48</v>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>29</v>
@@ -1375,19 +1354,19 @@
       <c r="A14" s="30">
         <v>3</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="65">
+      <c r="B14" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="36">
         <v>5017267</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="76" t="s">
-        <v>49</v>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>29</v>
@@ -1396,23 +1375,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>4</v>
       </c>
-      <c r="B15" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73" t="s">
+      <c r="B15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="75" t="s">
-        <v>46</v>
+      <c r="F15" s="21"/>
+      <c r="G15" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>29</v>
@@ -1421,94 +1400,96 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79" t="s">
+      <c r="B16" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>6</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="80" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>7</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="33" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="80" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>8</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>36</v>
+      <c r="C19" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>38</v>
@@ -1517,8 +1498,8 @@
         <v>22</v>
       </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="33" t="s">
-        <v>39</v>
+      <c r="G19" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>29</v>
@@ -1527,93 +1508,77 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
-        <v>9</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="A22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="59"/>
+      <c r="A23" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="62"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
@@ -1638,72 +1603,61 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="C27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A28" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="20" t="s">
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H28" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-    </row>
-    <row r="71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+    </row>
+    <row r="70" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.51181102362204722" bottom="0" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
